--- a/API_TEST_FRAME/test_data/test_demo.xlsx
+++ b/API_TEST_FRAME/test_data/test_demo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -74,310 +74,64 @@
     <t>case_01</t>
   </si>
   <si>
-    <t>name_01</t>
+    <t>注册接口</t>
   </si>
   <si>
     <t>是</t>
   </si>
   <si>
-    <t>测试用例步骤1</t>
-  </si>
-  <si>
-    <t>接口名称1</t>
-  </si>
-  <si>
-    <t>请求方式1</t>
-  </si>
-  <si>
-    <t>请求地址1</t>
-  </si>
-  <si>
-    <t>请求参数(get)1</t>
-  </si>
-  <si>
-    <t>提交数据(post)1</t>
-  </si>
-  <si>
-    <t>取值方式1</t>
-  </si>
-  <si>
-    <t>传值变量1</t>
-  </si>
-  <si>
-    <t>取值代码1</t>
-  </si>
-  <si>
-    <t>期望结果类型1</t>
-  </si>
-  <si>
-    <t>期望结果1</t>
+    <t>step1</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/api/register</t>
+  </si>
+  <si>
+    <t>{"email": "sydney@fife","password": "pistol"}</t>
+  </si>
+  <si>
+    <t>正则匹配</t>
+  </si>
+  <si>
+    <t>total_pages</t>
+  </si>
+  <si>
+    <t>"total_pages":(.+?)</t>
+  </si>
+  <si>
+    <t>json键是否存在</t>
   </si>
   <si>
     <t>case_02</t>
   </si>
   <si>
-    <t>name_02</t>
-  </si>
-  <si>
-    <t>测试用例步骤2</t>
-  </si>
-  <si>
-    <t>接口名称2</t>
-  </si>
-  <si>
-    <t>请求方式2</t>
-  </si>
-  <si>
-    <t>请求地址2</t>
-  </si>
-  <si>
-    <t>请求参数(get)2</t>
-  </si>
-  <si>
-    <t>提交数据(post)2</t>
-  </si>
-  <si>
-    <t>取值方式2</t>
-  </si>
-  <si>
-    <t>传值变量2</t>
-  </si>
-  <si>
-    <t>取值代码2</t>
-  </si>
-  <si>
-    <t>期望结果类型2</t>
-  </si>
-  <si>
-    <t>期望结果2</t>
-  </si>
-  <si>
-    <t>name_03</t>
-  </si>
-  <si>
-    <t>测试用例步骤3</t>
-  </si>
-  <si>
-    <t>接口名称3</t>
-  </si>
-  <si>
-    <t>请求方式3</t>
-  </si>
-  <si>
-    <t>请求地址3</t>
-  </si>
-  <si>
-    <t>请求参数(get)3</t>
-  </si>
-  <si>
-    <t>提交数据(post)3</t>
-  </si>
-  <si>
-    <t>取值方式3</t>
-  </si>
-  <si>
-    <t>传值变量3</t>
-  </si>
-  <si>
-    <t>取值代码3</t>
-  </si>
-  <si>
-    <t>期望结果类型3</t>
-  </si>
-  <si>
-    <t>期望结果3</t>
-  </si>
-  <si>
-    <t>name_04</t>
-  </si>
-  <si>
-    <t>测试用例步骤4</t>
-  </si>
-  <si>
-    <t>接口名称4</t>
-  </si>
-  <si>
-    <t>请求方式4</t>
-  </si>
-  <si>
-    <t>请求地址4</t>
-  </si>
-  <si>
-    <t>请求参数(get)4</t>
-  </si>
-  <si>
-    <t>提交数据(post)4</t>
-  </si>
-  <si>
-    <t>取值方式4</t>
-  </si>
-  <si>
-    <t>传值变量4</t>
-  </si>
-  <si>
-    <t>取值代码4</t>
-  </si>
-  <si>
-    <t>期望结果类型4</t>
-  </si>
-  <si>
-    <t>期望结果4</t>
-  </si>
-  <si>
-    <t>case_05</t>
-  </si>
-  <si>
-    <t>name_05</t>
-  </si>
-  <si>
-    <t>测试用例步骤5</t>
-  </si>
-  <si>
-    <t>接口名称5</t>
-  </si>
-  <si>
-    <t>请求方式5</t>
-  </si>
-  <si>
-    <t>请求地址5</t>
-  </si>
-  <si>
-    <t>请求参数(get)5</t>
-  </si>
-  <si>
-    <t>提交数据(post)5</t>
-  </si>
-  <si>
-    <t>取值方式5</t>
-  </si>
-  <si>
-    <t>传值变量5</t>
-  </si>
-  <si>
-    <t>取值代码5</t>
-  </si>
-  <si>
-    <t>期望结果类型5</t>
-  </si>
-  <si>
-    <t>期望结果5</t>
-  </si>
-  <si>
-    <t>case_06</t>
-  </si>
-  <si>
-    <t>name_06</t>
-  </si>
-  <si>
-    <t>测试用例步骤6</t>
-  </si>
-  <si>
-    <t>接口名称6</t>
-  </si>
-  <si>
-    <t>请求方式6</t>
-  </si>
-  <si>
-    <t>请求地址6</t>
-  </si>
-  <si>
-    <t>请求参数(get)6</t>
-  </si>
-  <si>
-    <t>提交数据(post)6</t>
-  </si>
-  <si>
-    <t>取值方式6</t>
-  </si>
-  <si>
-    <t>传值变量6</t>
-  </si>
-  <si>
-    <t>取值代码6</t>
-  </si>
-  <si>
-    <t>期望结果类型6</t>
-  </si>
-  <si>
-    <t>期望结果6</t>
-  </si>
-  <si>
-    <t>case_07</t>
-  </si>
-  <si>
-    <t>name_07</t>
-  </si>
-  <si>
-    <t>测试用例步骤7</t>
-  </si>
-  <si>
-    <t>接口名称7</t>
-  </si>
-  <si>
-    <t>请求方式7</t>
-  </si>
-  <si>
-    <t>请求地址7</t>
-  </si>
-  <si>
-    <t>请求参数(get)7</t>
-  </si>
-  <si>
-    <t>提交数据(post)7</t>
-  </si>
-  <si>
-    <t>取值方式7</t>
-  </si>
-  <si>
-    <t>传值变量7</t>
-  </si>
-  <si>
-    <t>取值代码7</t>
-  </si>
-  <si>
-    <t>期望结果类型7</t>
-  </si>
-  <si>
-    <t>期望结果7</t>
-  </si>
-  <si>
-    <t>case_08</t>
-  </si>
-  <si>
-    <t>name_08</t>
-  </si>
-  <si>
-    <t>测试用例步骤8</t>
-  </si>
-  <si>
-    <t>接口名称8</t>
-  </si>
-  <si>
-    <t>请求方式8</t>
-  </si>
-  <si>
-    <t>请求地址8</t>
-  </si>
-  <si>
-    <t>请求参数(get)8</t>
-  </si>
-  <si>
-    <t>提交数据(post)8</t>
-  </si>
-  <si>
-    <t>取值方式8</t>
-  </si>
-  <si>
-    <t>传值变量8</t>
-  </si>
-  <si>
-    <t>取值代码8</t>
-  </si>
-  <si>
-    <t>期望结果类型8</t>
-  </si>
-  <si>
-    <t>期望结果8</t>
+    <t>登录失败接口</t>
+  </si>
+  <si>
+    <t>登录失败接口2</t>
+  </si>
+  <si>
+    <t>/api/login</t>
+  </si>
+  <si>
+    <t>{"email": "123123"}</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>case_03</t>
+  </si>
+  <si>
+    <t>登录失败接口3</t>
+  </si>
+  <si>
+    <t>{"email": "12323"}</t>
   </si>
 </sst>
 </file>
@@ -742,12 +496,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -874,7 +643,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -886,34 +655,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -998,15 +767,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1533,419 +1311,187 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="2" width="15.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="15.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="18.9090909090909" customWidth="1"/>
     <col min="3" max="3" width="10.3636363636364" customWidth="1"/>
     <col min="4" max="4" width="16.4545454545455" customWidth="1"/>
-    <col min="5" max="7" width="11.5454545454545" customWidth="1"/>
-    <col min="8" max="8" width="17.7272727272727" customWidth="1"/>
-    <col min="9" max="9" width="18.9090909090909" customWidth="1"/>
+    <col min="5" max="5" width="14.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="12.8181818181818" customWidth="1"/>
+    <col min="7" max="7" width="16.4545454545455" customWidth="1"/>
+    <col min="8" max="8" width="26.2727272727273" customWidth="1"/>
+    <col min="9" max="9" width="35.5454545454545" customWidth="1"/>
     <col min="10" max="12" width="11.5454545454545" customWidth="1"/>
     <col min="13" max="13" width="16.4545454545455" customWidth="1"/>
-    <col min="14" max="14" width="11.5454545454545" customWidth="1"/>
+    <col min="14" max="14" width="25.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:14">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="89" customHeight="1" spans="1:14">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:14">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="89" customHeight="1" spans="1:14">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="89" customHeight="1" spans="1:14">
+      <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" ht="15" spans="1:14">
-      <c r="A3" s="1" t="s">
+    <row r="4" ht="89" customHeight="1" spans="1:14">
+      <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="H4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
